--- a/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-08.xlsx
+++ b/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-08.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>September 2022Production Schedule / Result For Assembly UP</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Progress</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Thursday</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>Kontol</t>
   </si>
   <si>
     <t>Monday</t>
@@ -133,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -151,6 +157,9 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -472,7 +481,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
@@ -532,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -553,7 +562,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -574,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
@@ -595,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -616,9 +625,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="1">
         <v>150</v>
       </c>
@@ -637,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
@@ -658,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -679,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -700,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -721,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -742,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -763,7 +774,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -784,7 +795,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -805,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -826,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -847,7 +858,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -868,7 +879,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
@@ -889,7 +900,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -910,7 +921,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -931,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
@@ -952,7 +963,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -973,7 +984,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
@@ -994,7 +1005,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -1015,7 +1026,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
@@ -1036,7 +1047,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1">
@@ -1057,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
@@ -1078,7 +1089,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
@@ -1099,7 +1110,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -1120,7 +1131,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1">
@@ -1141,7 +1152,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
@@ -1167,19 +1178,21 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1">
+      <c r="A37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3">
         <v>2685</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <v>534</v>
       </c>
-      <c r="F37" s="1">
-        <v>-2151</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="F37" s="3">
+        <v>-2151</v>
+      </c>
+      <c r="G37" s="3">
         <v>-2151</v>
       </c>
     </row>
@@ -1191,6 +1204,7 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-08.xlsx
+++ b/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-08.xlsx
@@ -102,7 +102,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -142,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -164,10 +170,19 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -487,7 +502,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
@@ -543,7 +558,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -564,7 +579,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -585,7 +600,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -606,7 +621,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -627,7 +642,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -648,7 +663,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -669,7 +684,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -690,7 +705,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -711,7 +726,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -732,7 +747,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2">
+      <c r="A15" s="8">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -753,7 +768,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
+      <c r="A16" s="8">
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -774,7 +789,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -795,7 +810,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="9">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -816,7 +831,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1">
+      <c r="A19" s="9">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -837,7 +852,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1">
+      <c r="A20" s="9">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -858,7 +873,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -879,7 +894,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2">
+      <c r="A22" s="8">
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -900,7 +915,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2">
+      <c r="A23" s="8">
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -921,7 +936,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1">
+      <c r="A24" s="9">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -942,7 +957,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1">
+      <c r="A25" s="9">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -963,7 +978,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1">
+      <c r="A26" s="9">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -984,7 +999,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1">
+      <c r="A27" s="9">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1005,7 +1020,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1">
+      <c r="A28" s="9">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1026,7 +1041,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2">
+      <c r="A29" s="8">
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1047,7 +1062,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2">
+      <c r="A30" s="8">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1068,7 +1083,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1">
+      <c r="A31" s="9">
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1089,7 +1104,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1">
+      <c r="A32" s="9">
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1110,7 +1125,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1">
+      <c r="A33" s="9">
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1131,7 +1146,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1">
+      <c r="A34" s="9">
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1152,7 +1167,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1">
+      <c r="A35" s="9">
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1173,7 +1188,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1182,7 +1197,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="4"/>

--- a/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-08.xlsx
+++ b/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-08.xlsx
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -181,6 +181,9 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -502,7 +505,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
@@ -531,7 +534,7 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="6"/>

--- a/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-08.xlsx
+++ b/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-08.xlsx
@@ -1206,15 +1206,19 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4">
+        <f>SUM(D6:D36)</f>
         <v>2685</v>
       </c>
       <c r="E37" s="4">
+        <f>SUM(E6:E36)</f>
         <v>534</v>
       </c>
       <c r="F37" s="4">
+        <f>SUM(F6:F36)</f>
         <v>-2151</v>
       </c>
       <c r="G37" s="4">
+        <f>E37-D37</f>
         <v>-2151</v>
       </c>
     </row>

--- a/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-08.xlsx
+++ b/app/production/compatibility_model/dashboard/result/export/data_hasil/b450_2022-09-08.xlsx
@@ -575,9 +575,11 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
+        <f>E6-D6</f>
         <v>-115</v>
       </c>
       <c r="G6" s="1">
+        <f>G5+E6</f>
         <v>-2685</v>
       </c>
     </row>
@@ -596,9 +598,11 @@
         <v>137</v>
       </c>
       <c r="F7" s="1">
+        <f>E7-D7</f>
         <v>-13</v>
       </c>
       <c r="G7" s="1">
+        <f>G6+E7</f>
         <v>-2548</v>
       </c>
     </row>
@@ -617,9 +621,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
+        <f>E8-D8</f>
         <v>0</v>
       </c>
       <c r="G8" s="2">
+        <f>G7+E8</f>
         <v>-2548</v>
       </c>
     </row>
@@ -638,9 +644,11 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
+        <f>E9-D9</f>
         <v>0</v>
       </c>
       <c r="G9" s="2">
+        <f>G8+E9</f>
         <v>-2548</v>
       </c>
     </row>
@@ -659,9 +667,11 @@
         <v>140</v>
       </c>
       <c r="F10" s="1">
+        <f>E10-D10</f>
         <v>-10</v>
       </c>
       <c r="G10" s="1">
+        <f>G9+E10</f>
         <v>-2408</v>
       </c>
     </row>
@@ -680,9 +690,11 @@
         <v>137</v>
       </c>
       <c r="F11" s="1">
+        <f>E11-D11</f>
         <v>22</v>
       </c>
       <c r="G11" s="1">
+        <f>G10+E11</f>
         <v>-2271</v>
       </c>
     </row>
@@ -701,9 +713,11 @@
         <v>10</v>
       </c>
       <c r="F12" s="1">
+        <f>E12-D12</f>
         <v>-140</v>
       </c>
       <c r="G12" s="1">
+        <f>G11+E12</f>
         <v>-2261</v>
       </c>
     </row>
@@ -722,9 +736,11 @@
         <v>110</v>
       </c>
       <c r="F13" s="1">
+        <f>E13-D13</f>
         <v>-5</v>
       </c>
       <c r="G13" s="1">
+        <f>G12+E13</f>
         <v>-2151</v>
       </c>
     </row>
@@ -743,9 +759,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
+        <f>E14-D14</f>
         <v>-150</v>
       </c>
       <c r="G14" s="1">
+        <f>G13+E14</f>
         <v>-2151</v>
       </c>
     </row>
@@ -764,9 +782,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
+        <f>E15-D15</f>
         <v>0</v>
       </c>
       <c r="G15" s="2">
+        <f>G14+E15</f>
         <v>-2151</v>
       </c>
     </row>
@@ -785,9 +805,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
+        <f>E16-D16</f>
         <v>0</v>
       </c>
       <c r="G16" s="2">
+        <f>G15+E16</f>
         <v>-2151</v>
       </c>
     </row>
@@ -806,9 +828,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="1">
+        <f>E17-D17</f>
         <v>-150</v>
       </c>
       <c r="G17" s="1">
+        <f>G16+E17</f>
         <v>-2151</v>
       </c>
     </row>
@@ -827,9 +851,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
+        <f>E18-D18</f>
         <v>-115</v>
       </c>
       <c r="G18" s="1">
+        <f>G17+E18</f>
         <v>-2151</v>
       </c>
     </row>
@@ -848,9 +874,11 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
+        <f>E19-D19</f>
         <v>-150</v>
       </c>
       <c r="G19" s="1">
+        <f>G18+E19</f>
         <v>-2151</v>
       </c>
     </row>
@@ -869,9 +897,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
+        <f>E20-D20</f>
         <v>-115</v>
       </c>
       <c r="G20" s="1">
+        <f>G19+E20</f>
         <v>-2151</v>
       </c>
     </row>
@@ -890,9 +920,11 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
+        <f>E21-D21</f>
         <v>-150</v>
       </c>
       <c r="G21" s="1">
+        <f>G20+E21</f>
         <v>-2151</v>
       </c>
     </row>
@@ -911,9 +943,11 @@
         <v>0</v>
       </c>
       <c r="F22" s="2">
+        <f>E22-D22</f>
         <v>0</v>
       </c>
       <c r="G22" s="2">
+        <f>G21+E22</f>
         <v>-2151</v>
       </c>
     </row>
@@ -932,9 +966,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="2">
+        <f>E23-D23</f>
         <v>0</v>
       </c>
       <c r="G23" s="2">
+        <f>G22+E23</f>
         <v>-2151</v>
       </c>
     </row>
@@ -953,9 +989,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="1">
+        <f>E24-D24</f>
         <v>-150</v>
       </c>
       <c r="G24" s="1">
+        <f>G23+E24</f>
         <v>-2151</v>
       </c>
     </row>
@@ -974,9 +1012,11 @@
         <v>0</v>
       </c>
       <c r="F25" s="1">
+        <f>E25-D25</f>
         <v>-115</v>
       </c>
       <c r="G25" s="1">
+        <f>G24+E25</f>
         <v>-2151</v>
       </c>
     </row>
@@ -995,9 +1035,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="1">
+        <f>E26-D26</f>
         <v>-150</v>
       </c>
       <c r="G26" s="1">
+        <f>G25+E26</f>
         <v>-2151</v>
       </c>
     </row>
@@ -1016,9 +1058,11 @@
         <v>0</v>
       </c>
       <c r="F27" s="1">
+        <f>E27-D27</f>
         <v>-115</v>
       </c>
       <c r="G27" s="1">
+        <f>G26+E27</f>
         <v>-2151</v>
       </c>
     </row>
@@ -1037,9 +1081,11 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
+        <f>E28-D28</f>
         <v>-150</v>
       </c>
       <c r="G28" s="1">
+        <f>G27+E28</f>
         <v>-2151</v>
       </c>
     </row>
@@ -1058,9 +1104,11 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
+        <f>E29-D29</f>
         <v>0</v>
       </c>
       <c r="G29" s="2">
+        <f>G28+E29</f>
         <v>-2151</v>
       </c>
     </row>
@@ -1079,9 +1127,11 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
+        <f>E30-D30</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
+        <f>G29+E30</f>
         <v>-2151</v>
       </c>
     </row>
@@ -1100,9 +1150,11 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
+        <f>E31-D31</f>
         <v>-150</v>
       </c>
       <c r="G31" s="1">
+        <f>G30+E31</f>
         <v>-2151</v>
       </c>
     </row>
@@ -1121,9 +1173,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="1">
+        <f>E32-D32</f>
         <v>-115</v>
       </c>
       <c r="G32" s="1">
+        <f>G31+E32</f>
         <v>-2151</v>
       </c>
     </row>
@@ -1142,9 +1196,11 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
+        <f>E33-D33</f>
         <v>-115</v>
       </c>
       <c r="G33" s="1">
+        <f>G32+E33</f>
         <v>-2151</v>
       </c>
     </row>
@@ -1163,9 +1219,11 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
+        <f>E34-D34</f>
         <v>0</v>
       </c>
       <c r="G34" s="1">
+        <f>G33+E34</f>
         <v>-2151</v>
       </c>
     </row>
@@ -1184,9 +1242,11 @@
         <v>0</v>
       </c>
       <c r="F35" s="1">
+        <f>E35-D35</f>
         <v>0</v>
       </c>
       <c r="G35" s="1">
+        <f>G34+E35</f>
         <v>-2151</v>
       </c>
     </row>
